--- a/lab_4_2D_Traffic_of_Mobile_Cellular_Network.xlsx
+++ b/lab_4_2D_Traffic_of_Mobile_Cellular_Network.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,17 +260,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,17 +274,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,15 +1267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,22 +1578,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
@@ -1618,20 +1618,20 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1651,25 +1651,25 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4">
-        <f>SUM(D8:I8)</f>
+        <f t="shared" ref="J8:J13" si="0">SUM(D8:I8)</f>
         <v>273.06666666666666</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>0</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B13" si="0">$E$5^C9/FACT(C9)</f>
+        <f t="shared" ref="B9:B12" si="1">$E$5^C9/FACT(C9)</f>
         <v>170.66666666666666</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:D13" si="1">B9*$D$15</f>
+        <f t="shared" ref="D9:D12" si="2">B9*$D$15</f>
         <v>170.66666666666666</v>
       </c>
       <c r="E9" s="3">
@@ -1681,31 +1681,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4">
-        <f>SUM(D9:I9)</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>1</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <v>0.11005434782608696</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.333333333333329</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.333333333333329</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E13" si="2">B10*$E$15</f>
+        <f t="shared" ref="E10:E13" si="3">B10*$E$15</f>
         <v>170.66666666666666</v>
       </c>
       <c r="F10" s="3">
@@ -1716,35 +1716,35 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4">
-        <f>SUM(D10:I10)</f>
+        <f t="shared" si="0"/>
         <v>426.66666666666663</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>2</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="16">
         <v>0.19906687402799378</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F13" si="3">B11*$F$15</f>
+        <f t="shared" ref="F11:F13" si="4">B11*$F$15</f>
         <v>64</v>
       </c>
       <c r="G11" s="3">
@@ -1754,39 +1754,39 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4">
-        <f>SUM(D11:I11)</f>
+        <f t="shared" si="0"/>
         <v>202.66666666666666</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>3</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <v>0.28486782133090249</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F12" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:G13" si="4">B12*$G$15</f>
+        <f t="shared" ref="G12:G13" si="5">B12*$G$15</f>
         <v>10.666666666666666</v>
       </c>
       <c r="H12" s="3">
@@ -1795,16 +1795,16 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="4">
-        <f>SUM(D12:I12)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>4</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="16">
         <v>0.3604004449388209</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -1819,15 +1819,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="G13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="H13" s="3">
@@ -1839,16 +1839,16 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="J13" s="4">
-        <f>SUM(D13:I13)</f>
+        <f t="shared" si="0"/>
         <v>7.2666666666666666</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="16">
         <v>0.42471949863539871</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1875,13 +1875,13 @@
         <f>SUM(J8:J13)</f>
         <v>1477.6666666666665</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>6</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="16">
         <v>0.47900830312244186</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -1891,192 +1891,192 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:I15" si="5">$E$4^E14/FACT(E14)</f>
+        <f t="shared" ref="E15:I15" si="6">$E$4^E14/FACT(E14)</f>
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>7</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="16">
         <v>0.52490799509307162</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>8</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="16">
         <v>0.56395217685540266</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="10"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f>D8/$J$14</f>
         <v>0.18479584931197837</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="K19" s="11">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="10">
         <f>D19</f>
         <v>0.18479584931197837</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
-        <f t="shared" ref="D20:G24" si="6">D9/$J$14</f>
+        <f t="shared" ref="D20:G24" si="7">D9/$J$14</f>
         <v>0.11549740581998647</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>E9/$J$14</f>
         <v>0.23099481163997293</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="11">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="K20" s="10">
         <f>E20</f>
         <v>0.23099481163997293</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7748702909993233E-2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11549740581998647</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>F10/$J$14</f>
         <v>0.11549740581998647</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="K21" s="11">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="10">
         <f>F21</f>
         <v>0.11549740581998647</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1655763591247466E-2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3311527182494931E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3311527182494931E-2</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>G11/$J$14</f>
         <v>2.8874351454996616E-2</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="K22" s="11">
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="10">
         <f>G22</f>
         <v>2.8874351454996616E-2</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4139408978118664E-3</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0827881795623733E-2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0827881795623733E-2</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2185878637491541E-3</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <f>H12/$J$14</f>
         <v>3.609293931874577E-3</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="K23" s="11">
+      <c r="I23" s="14"/>
+      <c r="K23" s="10">
         <f>H23</f>
         <v>3.609293931874577E-3</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.767426122264833E-4</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3534852244529666E-3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3534852244529666E-3</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0232348296864426E-4</v>
       </c>
       <c r="H24" s="1">
         <f>H13/$J$14</f>
         <v>4.5116174148432213E-4</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <f>I13/$J$14</f>
         <v>1.8046469659372888E-4</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="18">
         <f>I24</f>
         <v>1.8046469659372888E-4</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24">
+      <c r="J25" s="21"/>
+      <c r="K25" s="19">
         <f>SUM(K19:K24)</f>
         <v>0.56395217685540266</v>
       </c>
